--- a/var_info/indv_panel_var_info/NSHAP_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/NSHAP_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0DF8E28-EDCE-3E48-B55F-0B088A47B9E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4A847D-22F8-EC48-9DDC-3124948CC057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="20660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -21,15 +21,15 @@
     <sheet name="PanelInfo" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$O$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$P$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="72">
   <si>
     <t>ord</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t>Older Adults</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1091,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1104,7 +1107,7 @@
     <col min="5" max="5" width="28.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1148,10 +1151,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1185,8 +1191,11 @@
       <c r="K2">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1220,8 +1229,11 @@
       <c r="K3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -1255,8 +1267,11 @@
       <c r="K4">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -1287,8 +1302,11 @@
       <c r="K5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -1319,8 +1337,11 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -1351,8 +1372,11 @@
       <c r="K7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="17">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1386,8 +1410,11 @@
       <c r="K8">
         <v>90</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="17">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1421,8 +1448,11 @@
       <c r="K9">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="17">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1456,8 +1486,11 @@
       <c r="K10">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -1491,8 +1524,11 @@
       <c r="N11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -1526,8 +1562,11 @@
       <c r="N12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="17">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -1561,8 +1600,11 @@
       <c r="N13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="17">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1596,8 +1638,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="17">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -1634,8 +1679,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="17">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1672,8 +1720,11 @@
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -1710,8 +1761,11 @@
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1742,8 +1796,11 @@
       <c r="J18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1774,8 +1831,11 @@
       <c r="J19">
         <v>4</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -1806,8 +1866,11 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1838,8 +1901,11 @@
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -1870,8 +1936,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +1974,11 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1940,8 +2012,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -1973,6 +2048,9 @@
         <v>2</v>
       </c>
       <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
         <v>1</v>
       </c>
     </row>
@@ -1983,10 +2061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1995,7 +2073,7 @@
     <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2039,10 +2117,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2058,11 +2139,11 @@
       <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2078,11 +2159,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2098,7 +2179,7 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2109,10 +2190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2120,7 +2201,7 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2164,10 +2245,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2183,11 +2267,11 @@
       <c r="E2" t="s">
         <v>4</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2203,11 +2287,11 @@
       <c r="E3" t="s">
         <v>4</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2223,11 +2307,11 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2243,11 +2327,11 @@
       <c r="E5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2263,11 +2347,11 @@
       <c r="E6" t="s">
         <v>31</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2283,7 +2367,7 @@
       <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2295,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2308,7 +2392,7 @@
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2352,10 +2436,13 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -2371,11 +2458,11 @@
       <c r="E2" t="s">
         <v>60</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -2391,11 +2478,11 @@
       <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2411,11 +2498,11 @@
       <c r="E4" t="s">
         <v>60</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17">
+    <row r="5" spans="1:16" ht="17">
       <c r="F5" s="1"/>
     </row>
   </sheetData>
@@ -2425,10 +2512,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2436,7 +2523,7 @@
     <col min="2" max="3" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -2480,6 +2567,9 @@
         <v>16</v>
       </c>
       <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
         <v>19</v>
       </c>
     </row>
